--- a/plots/countries/plot data/Luxembourg.xlsx
+++ b/plots/countries/plot data/Luxembourg.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0.708679045797557</v>
+        <v>0.742384321890843</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0219477875695437</v>
+        <v>0.0219477875695438</v>
       </c>
     </row>
     <row r="5">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0348214086785372</v>
+        <v>0.0348214086785392</v>
       </c>
     </row>
     <row r="7">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>2.62666119135128</v>
+        <v>2.62666119135127</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>1.60976489327604</v>
+        <v>1.60575697144936</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00898056491213945</v>
+        <v>0.014962411496437</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>0.116291628050975</v>
+        <v>0.116291628050976</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>0.710680269584915</v>
+        <v>0.745280003991453</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>1.63017154456952</v>
+        <v>1.63017154456951</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0227688484551</v>
+        <v>0.0227688484551001</v>
       </c>
     </row>
     <row r="14">
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0364330343050728</v>
+        <v>0.0364330343050721</v>
       </c>
     </row>
     <row r="16">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>1.53226057959123</v>
+        <v>1.52883695075602</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0589223858348291</v>
+        <v>-0.0528054774449858</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>0.699922004089674</v>
+        <v>0.735404518044743</v>
       </c>
     </row>
     <row r="21">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0237586992689792</v>
+        <v>0.0237586992689793</v>
       </c>
     </row>
     <row r="23">
@@ -945,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0363287044674746</v>
+        <v>0.036328704467474</v>
       </c>
     </row>
     <row r="25">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>1.46527503921807</v>
+        <v>1.4624362990809</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.464531701806878</v>
+        <v>-0.458373856346712</v>
       </c>
     </row>
     <row r="28">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>0.705127994208049</v>
+        <v>0.738934223637101</v>
       </c>
     </row>
     <row r="30">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0246626869105362</v>
+        <v>0.0246626869105361</v>
       </c>
     </row>
     <row r="32">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>5.86344596685988</v>
+        <v>5.86344596685987</v>
       </c>
     </row>
     <row r="33">
@@ -1125,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>0.038478204146742</v>
+        <v>0.0384782041467413</v>
       </c>
     </row>
     <row r="34">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>3.56431362043844</v>
+        <v>3.56431362043843</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>1.45405596979328</v>
+        <v>1.45130640031425</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.591229792585271</v>
+        <v>-0.585111178475559</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>0.121008003718755</v>
+        <v>0.121008003718756</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6835974462768</v>
+        <v>0.716228017104876</v>
       </c>
     </row>
     <row r="39">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0248326269120071</v>
+        <v>0.0248326269120069</v>
       </c>
     </row>
     <row r="41">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>5.14669963095317</v>
+        <v>5.14672571987479</v>
       </c>
     </row>
     <row r="42">
@@ -1305,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0414794022252395</v>
+        <v>0.0414794022252418</v>
       </c>
     </row>
     <row r="43">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>3.62066604143389</v>
+        <v>3.62063998397217</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>1.35704187004719</v>
+        <v>1.3558533356404</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.443444857163292</v>
+        <v>-0.437372978593695</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>0.112090964602058</v>
+        <v>0.11209096460206</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>0.702835514911327</v>
+        <v>0.735639971463324</v>
       </c>
     </row>
     <row r="48">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0283143151836831</v>
+        <v>0.0283143151836829</v>
       </c>
     </row>
     <row r="50">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>3.28969212621421</v>
+        <v>3.29011628928517</v>
       </c>
     </row>
     <row r="51">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>0.103756336754835</v>
+        <v>0.103756336754836</v>
       </c>
     </row>
     <row r="52">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>3.37827770635337</v>
+        <v>3.37785405501122</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>0.998711269422364</v>
+        <v>0.997626597045756</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.522650191899438</v>
+        <v>-0.516367137789313</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>0.70724148557016</v>
+        <v>0.74037546575555</v>
       </c>
     </row>
     <row r="57">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>0.03097629070014</v>
+        <v>0.0309762907001401</v>
       </c>
     </row>
     <row r="59">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>3.13178132401061</v>
+        <v>3.13181207759291</v>
       </c>
     </row>
     <row r="60">
@@ -1665,7 +1665,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>0.093092748616379</v>
+        <v>0.0930927486163803</v>
       </c>
     </row>
     <row r="61">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>3.49433514396802</v>
+        <v>3.49430442798413</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>0.944662203784957</v>
+        <v>0.944217665057737</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.558376220205074</v>
+        <v>-0.551998980120266</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>0.113819740390917</v>
+        <v>0.113819740390918</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>0.700782321227687</v>
+        <v>0.733383648135385</v>
       </c>
     </row>
     <row r="66">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>0.031682119674783</v>
+        <v>0.0316821196747829</v>
       </c>
     </row>
     <row r="68">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>2.36297565220284</v>
+        <v>2.36468340473657</v>
       </c>
     </row>
     <row r="69">
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>0.10580358464005</v>
+        <v>0.105803584640049</v>
       </c>
     </row>
     <row r="70">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>3.76323899730529</v>
+        <v>3.76312772431513</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>0.836106538740767</v>
+        <v>0.835734170322776</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.644316332966041</v>
+        <v>-0.637835219299357</v>
       </c>
     </row>
     <row r="73">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>0.696214960869875</v>
+        <v>0.728391309349885</v>
       </c>
     </row>
     <row r="75">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0319311544658758</v>
+        <v>0.0319311544658757</v>
       </c>
     </row>
     <row r="77">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>1.31373425426059</v>
+        <v>1.31612629075091</v>
       </c>
     </row>
     <row r="78">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>3.95802584854843</v>
+        <v>3.95777875293941</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>0.679759851119221</v>
+        <v>0.679726782401194</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.538436475858955</v>
+        <v>-0.529887184937895</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>0.118567446933261</v>
+        <v>0.118567446933262</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>0.696088720774568</v>
+        <v>0.728864171014831</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>1.527136575749</v>
+        <v>1.52713657574901</v>
       </c>
     </row>
     <row r="85">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>1.40523823510642</v>
+        <v>1.40724819497602</v>
       </c>
     </row>
     <row r="87">
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>0.168499034165667</v>
+        <v>0.168499034165666</v>
       </c>
     </row>
     <row r="88">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>0.718263288987099</v>
+        <v>0.718212894192128</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.604746071860276</v>
+        <v>-0.594176069232377</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>0.118003285197107</v>
+        <v>0.118003285197108</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>0.688802292259212</v>
+        <v>0.720986142221905</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>1.67131315778655</v>
+        <v>1.67131315778656</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0339473617395822</v>
+        <v>0.0339473617395821</v>
       </c>
     </row>
     <row r="95">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>1.34345496281076</v>
+        <v>1.34345496281075</v>
       </c>
     </row>
     <row r="96">
@@ -2385,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>0.117856807046165</v>
+        <v>0.117856807046164</v>
       </c>
     </row>
     <row r="97">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>0.74736587781251</v>
+        <v>0.747252565114027</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.614760803257173</v>
+        <v>-0.601906938356328</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>0.115992099975926</v>
+        <v>0.115992099975928</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>0.678004043872106</v>
+        <v>0.707580957688544</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>1.72332046421298</v>
+        <v>1.72332046421299</v>
       </c>
     </row>
     <row r="103">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0377284295035965</v>
+        <v>0.0377284295035964</v>
       </c>
     </row>
     <row r="104">
@@ -2565,7 +2565,7 @@
         <v>17</v>
       </c>
       <c r="F105" t="n">
-        <v>0.282926499162253</v>
+        <v>0.282926499162254</v>
       </c>
     </row>
     <row r="106">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>0.70038496834089</v>
+        <v>0.700114231035125</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.593378410655321</v>
+        <v>-0.578122676994757</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>0.116439157940269</v>
+        <v>0.116439157940268</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>0.662267843134169</v>
+        <v>0.69204973901225</v>
       </c>
     </row>
     <row r="111">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0540415543128186</v>
+        <v>0.0540415543128185</v>
       </c>
     </row>
     <row r="113">
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="F114" t="n">
-        <v>1.02923256218494</v>
+        <v>1.02919141923296</v>
       </c>
     </row>
     <row r="115">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>0.718975794700872</v>
+        <v>0.718795902401279</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.583054563876994</v>
+        <v>-0.597399160793541</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>0.117194930907635</v>
+        <v>0.117194930907636</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>0.638771212250695</v>
+        <v>0.665401499975108</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>1.68867639434744</v>
+        <v>1.68867639434745</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0547662993899383</v>
+        <v>0.0547662993899384</v>
       </c>
     </row>
     <row r="122">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>1.03344639725297</v>
+        <v>1.0331020463546</v>
       </c>
     </row>
     <row r="124">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>0.668309465724993</v>
+        <v>0.668551826709533</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.563320808661044</v>
+        <v>-0.575506892594442</v>
       </c>
     </row>
     <row r="127">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>0.639467829083872</v>
+        <v>0.669911306764481</v>
       </c>
     </row>
     <row r="129">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>0.060778547455173</v>
+        <v>0.0607785474551728</v>
       </c>
     </row>
     <row r="131">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>1.25550533614653</v>
+        <v>1.25256441857995</v>
       </c>
     </row>
     <row r="133">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>0.723304336769017</v>
+        <v>0.722824405621304</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.609469146913616</v>
+        <v>-0.619277961301681</v>
       </c>
     </row>
     <row r="136">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>0.638905020036179</v>
+        <v>0.667258501285083</v>
       </c>
     </row>
     <row r="138">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>1.37352003494711</v>
+        <v>1.37352003494712</v>
       </c>
     </row>
     <row r="141">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>1.23729287429369</v>
+        <v>1.23670894732865</v>
       </c>
     </row>
     <row r="142">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>0.694507076097163</v>
+        <v>0.694211614904737</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.565976325883289</v>
+        <v>-0.573212591547127</v>
       </c>
     </row>
     <row r="145">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>0.629014811307671</v>
+        <v>0.657220264473388</v>
       </c>
     </row>
     <row r="147">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>1.47281535069348</v>
+        <v>1.47281535069347</v>
       </c>
     </row>
     <row r="150">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>1.29984540519151</v>
+        <v>1.29667621106812</v>
       </c>
     </row>
     <row r="151">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>0.749393011119088</v>
+        <v>0.749400849506011</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.484989062613578</v>
+        <v>-0.491638414002099</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>0.119059904581632</v>
+        <v>0.119059904581631</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>0.641347182835624</v>
+        <v>0.669145035996936</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>1.53906122489442</v>
+        <v>1.53906122489443</v>
       </c>
     </row>
     <row r="157">
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="F159" t="n">
-        <v>1.17433756527664</v>
+        <v>1.17148020903153</v>
       </c>
     </row>
     <row r="160">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>0.74555518277361</v>
+        <v>0.745589925510722</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.392728179266493</v>
+        <v>-0.398674355545342</v>
       </c>
     </row>
     <row r="163">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>0.660990170899089</v>
+        <v>0.689317465243545</v>
       </c>
     </row>
     <row r="165">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0562112540478579</v>
+        <v>0.056211254047858</v>
       </c>
     </row>
     <row r="167">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>1.33896702095184</v>
+        <v>1.33896702095185</v>
       </c>
     </row>
     <row r="168">
@@ -3825,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="n">
-        <v>0.987028463023957</v>
+        <v>0.983643744491907</v>
       </c>
     </row>
     <row r="169">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>0.694799085277375</v>
+        <v>0.695545800140793</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.410693498765424</v>
+        <v>-0.41582816286938</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>0.122606009841583</v>
+        <v>0.122606009841582</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>0.659039853173674</v>
+        <v>0.687285511824296</v>
       </c>
     </row>
     <row r="174">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>1.21148852357778</v>
+        <v>1.21148852357779</v>
       </c>
     </row>
     <row r="177">
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
       <c r="F177" t="n">
-        <v>1.1880904096078</v>
+        <v>1.18195970335409</v>
       </c>
     </row>
     <row r="178">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>6.12748328516558</v>
+        <v>6.12748328516559</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>0.625966355081809</v>
+        <v>0.62664451375184</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.42305330214069</v>
+        <v>-0.428815694769319</v>
       </c>
     </row>
     <row r="181">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>0.663166928718573</v>
+        <v>0.691814426421471</v>
       </c>
     </row>
     <row r="183">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>1.20458325252655</v>
+        <v>1.20001646600833</v>
       </c>
     </row>
     <row r="187">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>6.50516824858995</v>
+        <v>6.50516824858996</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>0.651028383855046</v>
+        <v>0.651379866302726</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.205402732162716</v>
+        <v>-0.210957017999603</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>0.110488209786765</v>
+        <v>0.121512987031451</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>0.648553908139702</v>
+        <v>0.677419058191537</v>
       </c>
     </row>
     <row r="192">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>1.01143233433387</v>
+        <v>1.00341925439613</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>6.86724183697861</v>
+        <v>6.86724183697862</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>0.660724691877206</v>
+        <v>0.661057949622214</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-0.29816874754457</v>
+        <v>-0.309593057659933</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>0.106297060410789</v>
+        <v>0.116661002641626</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>0.63919226812909</v>
+        <v>0.667135101350627</v>
       </c>
     </row>
     <row r="201">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>0.0541886529962661</v>
+        <v>0.0541886529962662</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>1.24667870071849</v>
+        <v>1.24667870071848</v>
       </c>
     </row>
     <row r="204">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>1.05482054807789</v>
+        <v>1.04607374791617</v>
       </c>
     </row>
     <row r="205">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>0.629162722016916</v>
+        <v>0.62925616803927</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-0.368197565877615</v>
+        <v>-0.405618893730286</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>0.105471168367831</v>
+        <v>0.115215171431426</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>0.65223940817415</v>
+        <v>0.680033625129247</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>1.53663960100805</v>
+        <v>1.53663960100804</v>
       </c>
     </row>
     <row r="211">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>0.707312138227799</v>
+        <v>0.696949771593807</v>
       </c>
     </row>
     <row r="214">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>0.611780721792479</v>
+        <v>0.611729598900152</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-0.513836132237303</v>
+        <v>-0.570460741601291</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>0.105817323914419</v>
+        <v>0.115022817051243</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>0.665070059420012</v>
+        <v>0.692731099486928</v>
       </c>
     </row>
     <row r="219">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0435730272000113</v>
+        <v>0.0435730272000114</v>
       </c>
     </row>
     <row r="221">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>0.679378136319588</v>
+        <v>0.670061182999439</v>
       </c>
     </row>
     <row r="223">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>0.622019690436928</v>
+        <v>0.621972300508344</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.422588429498832</v>
+        <v>-0.502350122995097</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>0.10735756098801</v>
+        <v>0.115900134243686</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>0.675201819586608</v>
+        <v>0.702647382585327</v>
       </c>
     </row>
     <row r="228">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>0.4714791147548</v>
+        <v>0.461116295797773</v>
       </c>
     </row>
     <row r="232">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>0.613364675395948</v>
+        <v>0.612281650033388</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-0.369205448909396</v>
+        <v>-0.456489771334596</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>0.102122766997083</v>
+        <v>0.110049979033147</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>0.697230154266045</v>
+        <v>0.725574442070424</v>
       </c>
     </row>
     <row r="237">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>0.266256624294497</v>
+        <v>0.253710766377114</v>
       </c>
     </row>
     <row r="241">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>0.637452250124006</v>
+        <v>0.636624961394814</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-0.46831903002815</v>
+        <v>-0.561112653635031</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>0.100834283065696</v>
+        <v>0.108207247932907</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>0.701749952555666</v>
+        <v>0.730276686793996</v>
       </c>
     </row>
     <row r="246">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0354714320996057</v>
+        <v>0.0354714320996059</v>
       </c>
     </row>
     <row r="248">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>0.2566164977986</v>
+        <v>0.244698629795303</v>
       </c>
     </row>
     <row r="250">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>0.645997314234535</v>
+        <v>0.645904980396023</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-0.379428216851437</v>
+        <v>-0.476099472467089</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>0.100856161230053</v>
+        <v>0.107728160680933</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>0.704243561501822</v>
+        <v>0.731959728542034</v>
       </c>
     </row>
     <row r="255">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0348829348206842</v>
+        <v>0.0348829348206844</v>
       </c>
     </row>
     <row r="257">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>0.233258655256846</v>
+        <v>0.221789504931048</v>
       </c>
     </row>
     <row r="259">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>0.643019931941415</v>
+        <v>0.643117552161737</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-0.241148293563555</v>
+        <v>-0.33893200437089</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>0.0981197246212991</v>
+        <v>0.10453737135722</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>0.686126285534065</v>
+        <v>0.713618818876801</v>
       </c>
     </row>
     <row r="264">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>0.034920923656159</v>
+        <v>0.0349209236561592</v>
       </c>
     </row>
     <row r="266">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>0.218046237312118</v>
+        <v>0.20692670144192</v>
       </c>
     </row>
     <row r="268">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>0.65813431600522</v>
+        <v>0.657266894532162</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-0.363590763877838</v>
+        <v>-0.459033217704266</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>0.0934072483356982</v>
+        <v>0.0994114639138184</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>0.698341932660566</v>
+        <v>0.724815806575559</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>1.60989157298751</v>
+        <v>1.60973118281571</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>0.0315154675021909</v>
+        <v>0.031515467502191</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>1.14189188992008</v>
+        <v>1.14046230751072</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>0.215073815181352</v>
+        <v>0.211377444242171</v>
       </c>
     </row>
     <row r="277">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>0.631999070800274</v>
+        <v>0.631391331319499</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-0.447645642755833</v>
+        <v>-0.543908112817416</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>0.0901617856773301</v>
+        <v>0.0957876915936672</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>0.694734784369818</v>
+        <v>0.721884010398192</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>1.64427615723419</v>
+        <v>1.64368187947978</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>0.0339018933161308</v>
+        <v>0.0339018933161309</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>1.17891931835819</v>
+        <v>1.17247847252549</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>0.263553119198129</v>
+        <v>0.259826706693665</v>
       </c>
     </row>
     <row r="286">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>0.55928762246584</v>
+        <v>0.558760680707223</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-0.605344713425059</v>
+        <v>-0.703349572194907</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>0.0894161704016836</v>
+        <v>0.0946746261935492</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>0.665572476740048</v>
+        <v>0.685218910398676</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>1.41814381339862</v>
+        <v>1.42045982292064</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>0.02638679719325</v>
+        <v>0.0263867971932499</v>
       </c>
     </row>
     <row r="293">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>0.232199757986411</v>
+        <v>0.227601088337908</v>
       </c>
     </row>
     <row r="295">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>0.53529570887781</v>
+        <v>0.534885157581349</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-0.648211082315684</v>
+        <v>-0.74502476558972</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>0.0845885415629655</v>
+        <v>0.0896009519371998</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.685674021929003</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1.40348163684389</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.024699316929517</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.901714767038354</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.195610083681032</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>4.06428859462679</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.411900950838278</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-0.675630674146269</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.0815250053535318</v>
       </c>
     </row>
   </sheetData>
